--- a/tables/TableSX_ncrab_power_analysis_key.xlsx
+++ b/tables/TableSX_ncrab_power_analysis_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C0212-B5AD-A74F-B68E-69BAE7797DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42E749-42C5-0049-A480-919E577BC430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="4860" windowWidth="28040" windowHeight="17440" xr2:uid="{954C29A9-7FB2-C54B-B6C5-D9D05D6AB572}"/>
+    <workbookView xWindow="26380" yWindow="3960" windowWidth="28040" windowHeight="17440" xr2:uid="{954C29A9-7FB2-C54B-B6C5-D9D05D6AB572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,13 +81,13 @@
     <t>Opened correctly</t>
   </si>
   <si>
-    <t>Opened recklessly - a public health risk</t>
-  </si>
-  <si>
     <t>Closed unnecessarily - a burden on fishers</t>
   </si>
   <si>
     <t>True negative</t>
+  </si>
+  <si>
+    <t>Opened riskily - a public health threat</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,12 +532,12 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
